--- a/disco/extensions/upgrade_simulation/upgrades/Generic_DISCO_cost_database_v2.xlsx
+++ b/disco/extensions/upgrade_simulation/upgrades/Generic_DISCO_cost_database_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABRAHAM\Desktop\NREL\current_projects\SETO_distcost\AutomatedUpgrades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABRAHAM\Documents\GitHub\Tools\disco\disco\extensions\upgrade_simulation\upgrades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E21E7D-1D97-410D-9386-A59418737907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EEFA48-40DD-4E67-9A40-68920FF48FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="676" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="676" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="control_changes" sheetId="4" r:id="rId3"/>
     <sheet name="voltage_regulators" sheetId="3" r:id="rId4"/>
     <sheet name="misc" sheetId="7" r:id="rId5"/>
-    <sheet name="questions" sheetId="6" r:id="rId6"/>
+    <sheet name="notes" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="39">
   <si>
     <t>cost_per_m</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve"> Difference in cost if new transformer is added in parallel, as compared to changing the rating of a transformer - would mean removing and then replacing</t>
-  </si>
-  <si>
     <t>primary_kV</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   <si>
     <t>Change voltage regulator controller settings</t>
   </si>
+  <si>
+    <t>If new transformer is added in parallel, then removing and replacing fixed costs are considered (refer sheet misc)</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +164,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,8 +299,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,12 +484,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -668,33 +668,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1051,46 +1050,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1098,68 +1099,68 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.24</v>
+        <v>4.157</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>1115.4855643044618</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7712812921102001</v>
+        <v>4.157</v>
       </c>
       <c r="D3">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>885.82677165354323</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="D4">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>1115.4855643044618</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1167,202 +1168,2871 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.24</v>
+        <v>7.2</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>885.82677165354323</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>14.433999999999999</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>885.82677165354323</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.8</v>
+        <v>14.433999999999999</v>
       </c>
       <c r="D7">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>1213.9107611548557</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>1017.0603674540682</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4.8</v>
+        <v>0.12</v>
       </c>
       <c r="D9">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>1082.6771653543306</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4.8</v>
+        <v>0.12</v>
       </c>
       <c r="D10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>1082.6771653543306</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>1115.4855643044618</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>4.8</v>
+        <v>0.12</v>
       </c>
       <c r="D12">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>1509.1863517060367</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1148.2939632545931</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0.12</v>
+      </c>
+      <c r="D14">
+        <v>233</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1574.803149606299</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.12</v>
+      </c>
+      <c r="D15">
+        <v>233</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1213.9107611548557</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0.12</v>
+      </c>
+      <c r="D16">
+        <v>285</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1279.527559055118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0.12</v>
+      </c>
+      <c r="D17">
+        <v>285</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1673.2283464566929</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0.12</v>
+      </c>
+      <c r="D18">
+        <v>295</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1312.3359580052493</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>295</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1706.0367454068241</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>300</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1312.3359580052493</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.12</v>
+      </c>
+      <c r="D21">
+        <v>301</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1706.0367454068241</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0.12</v>
+      </c>
+      <c r="D22">
+        <v>301</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1312.3359580052493</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0.12</v>
+      </c>
+      <c r="D23">
+        <v>325</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1345.1443569553805</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0.12</v>
+      </c>
+      <c r="D24">
+        <v>350</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1410.7611548556429</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0.12</v>
+      </c>
+      <c r="D25">
+        <v>370</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1443.5695538057741</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.12</v>
+      </c>
+      <c r="D26">
+        <v>390</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1476.3779527559054</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0.12</v>
+      </c>
+      <c r="D27">
+        <v>445</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1541.994750656168</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0.12</v>
+      </c>
+      <c r="D28">
+        <v>445</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2001.3123359580052</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0.12</v>
+      </c>
+      <c r="D29">
+        <v>465</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2066.9291338582675</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0.12</v>
+      </c>
+      <c r="D30">
+        <v>465</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1574.803149606299</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0.12</v>
+      </c>
+      <c r="D31">
+        <v>525</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1673.2283464566929</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0.12</v>
+      </c>
+      <c r="D32">
+        <v>525</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2198.1627296587926</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0.12</v>
+      </c>
+      <c r="D33">
+        <v>550</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1738.8451443569552</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0.12</v>
+      </c>
+      <c r="D34">
+        <v>900</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2985.5643044619419</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>7.2</v>
+      </c>
+      <c r="D35">
+        <v>325</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1345.1443569553805</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D36">
+        <v>285</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2001.3123359580052</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D37">
+        <v>370</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2230.9711286089237</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D38">
+        <v>550</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2690.2887139107611</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D39">
+        <v>1200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4363.5170603674542</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>4.157</v>
+      </c>
+      <c r="D40">
+        <v>285</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2001.3123359580052</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>4.157</v>
+      </c>
+      <c r="D41">
+        <v>325</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1640.4199475065616</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>4.157</v>
+      </c>
+      <c r="D42">
+        <v>960</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2887.1391076115483</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>7.2</v>
+      </c>
+      <c r="D43">
+        <v>295</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2034.1207349081365</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>7.2</v>
+      </c>
+      <c r="D44">
+        <v>325</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1640.4199475065616</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>7.2</v>
+      </c>
+      <c r="D45">
+        <v>370</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2230.9711286089237</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>7.2</v>
+      </c>
+      <c r="D46">
+        <v>390</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2263.7795275590552</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>7.2</v>
+      </c>
+      <c r="D47">
+        <v>445</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1870.0787401574803</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>7.2</v>
+      </c>
+      <c r="D48">
+        <v>445</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2427.8215223097113</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>7.2</v>
+      </c>
+      <c r="D49">
+        <v>465</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2460.6299212598424</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>7.2</v>
+      </c>
+      <c r="D50">
+        <v>465</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1902.8871391076113</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>7.2</v>
+      </c>
+      <c r="D51">
+        <v>475</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1935.6955380577426</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>7.2</v>
+      </c>
+      <c r="D52">
+        <v>475</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2493.4383202099734</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>7.2</v>
+      </c>
+      <c r="D53">
+        <v>480</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2493.4383202099734</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>7.2</v>
+      </c>
+      <c r="D54">
+        <v>525</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2624.6719160104985</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>7.2</v>
+      </c>
+      <c r="D55">
+        <v>550</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2690.2887139107611</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>7.2</v>
+      </c>
+      <c r="D56">
+        <v>575</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2755.9055118110236</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>7.2</v>
+      </c>
+      <c r="D57">
+        <v>595</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2165.3543307086611</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>7.2</v>
+      </c>
+      <c r="D58">
+        <v>595</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2788.7139107611547</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>7.2</v>
+      </c>
+      <c r="D59">
+        <v>900</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2755.9055118110236</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>7.2</v>
+      </c>
+      <c r="D60">
+        <v>900</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3576.1154855643044</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>7.2</v>
+      </c>
+      <c r="D61">
+        <v>960</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2887.1391076115483</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="D62">
+        <v>295</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2034.1207349081365</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="D63">
+        <v>350</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1673.2283464566929</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="D64">
+        <v>960</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2887.1391076115483</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>39.837000000000003</v>
+      </c>
+      <c r="D65">
+        <v>960</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2887.1391076115483</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>4.8</v>
-      </c>
-      <c r="D13">
-        <v>164</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>4.157</v>
+      </c>
+      <c r="D66">
+        <v>151</v>
+      </c>
+      <c r="E66" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F66" s="1">
+        <v>557.74278215223092</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>4.157</v>
+      </c>
+      <c r="D67">
+        <v>165</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1">
+        <v>426.50918635170603</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>7.2</v>
+      </c>
+      <c r="D68">
+        <v>151</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1">
+        <v>557.74278215223092</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>7.2</v>
+      </c>
+      <c r="D69">
+        <v>165</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1">
+        <v>426.50918635170603</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="D70">
+        <v>170</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1">
+        <v>426.50918635170603</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="D71">
+        <v>205</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1">
+        <v>590.55118110236219</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0.12</v>
+      </c>
+      <c r="D72">
+        <v>115</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1">
+        <v>492.12598425196848</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>0.12</v>
+      </c>
+      <c r="D73">
+        <v>151</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1">
+        <v>524.93438320209975</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>0.12</v>
+      </c>
+      <c r="D74">
+        <v>165</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1">
+        <v>557.74278215223092</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0.12</v>
+      </c>
+      <c r="D75">
+        <v>170</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1">
+        <v>557.74278215223092</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>0.12</v>
+      </c>
+      <c r="D76">
+        <v>205</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="1">
+        <v>754.59317585301835</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>0.12</v>
+      </c>
+      <c r="D77">
+        <v>205</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1">
+        <v>590.55118110236219</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>0.12</v>
+      </c>
+      <c r="D78">
+        <v>233</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="1">
+        <v>787.40157480314951</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>0.12</v>
+      </c>
+      <c r="D79">
+        <v>233</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1">
+        <v>590.55118110236219</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>0.12</v>
+      </c>
+      <c r="D80">
+        <v>285</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1">
+        <v>656.16797900262463</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>0.12</v>
+      </c>
+      <c r="D81">
+        <v>285</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1">
+        <v>853.01837270341207</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>0.12</v>
+      </c>
+      <c r="D82">
+        <v>295</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="1">
+        <v>656.16797900262463</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>0.12</v>
+      </c>
+      <c r="D83">
+        <v>295</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="1">
+        <v>853.01837270341207</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>0.12</v>
+      </c>
+      <c r="D84">
+        <v>300</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1">
+        <v>656.16797900262463</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0.12</v>
+      </c>
+      <c r="D85">
+        <v>301</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="1">
+        <v>853.01837270341207</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>0.12</v>
+      </c>
+      <c r="D86">
+        <v>301</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1">
+        <v>656.16797900262463</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>0.12</v>
+      </c>
+      <c r="D87">
+        <v>325</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="1">
+        <v>688.97637795275591</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>0.12</v>
+      </c>
+      <c r="D88">
+        <v>350</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="1">
+        <v>688.97637795275591</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>0.12</v>
+      </c>
+      <c r="D89">
+        <v>370</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1">
+        <v>721.78477690288707</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>0.12</v>
+      </c>
+      <c r="D90">
+        <v>390</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="1">
+        <v>721.78477690288707</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>0.12</v>
+      </c>
+      <c r="D91">
+        <v>445</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="1">
+        <v>787.40157480314951</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>0.12</v>
+      </c>
+      <c r="D92">
+        <v>445</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1017.0603674540682</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>0.12</v>
+      </c>
+      <c r="D93">
+        <v>465</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1017.0603674540682</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>0.12</v>
+      </c>
+      <c r="D94">
+        <v>465</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="1">
+        <v>787.40157480314951</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>0.12</v>
+      </c>
+      <c r="D95">
+        <v>525</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="1">
+        <v>853.01837270341207</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>0.12</v>
+      </c>
+      <c r="D96">
+        <v>525</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1082.6771653543306</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>0.12</v>
+      </c>
+      <c r="D97">
+        <v>550</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="1">
+        <v>853.01837270341207</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>0.12</v>
+      </c>
+      <c r="D98">
+        <v>900</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1509.1863517060367</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>7.2</v>
+      </c>
+      <c r="D99">
+        <v>325</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="1">
+        <v>688.97637795275591</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D100">
+        <v>285</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1017.0603674540682</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D101">
+        <v>370</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1115.4855643044618</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D102">
+        <v>550</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1345.1443569553805</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D103">
+        <v>1200</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2165.3543307086611</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>4.157</v>
+      </c>
+      <c r="D104">
+        <v>285</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1017.0603674540682</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>4.157</v>
+      </c>
+      <c r="D105">
+        <v>325</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="1">
+        <v>820.20997375328079</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>4.157</v>
+      </c>
+      <c r="D106">
+        <v>960</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1443.5695538057741</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>7.2</v>
+      </c>
+      <c r="D107">
+        <v>295</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1017.0603674540682</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>7.2</v>
+      </c>
+      <c r="D108">
+        <v>325</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1">
+        <v>820.20997375328079</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>7.2</v>
+      </c>
+      <c r="D109">
+        <v>370</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1115.4855643044618</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>7.2</v>
+      </c>
+      <c r="D110">
+        <v>390</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1148.2939632545931</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>7.2</v>
+      </c>
+      <c r="D111">
+        <v>445</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="1">
+        <v>918.63517060367451</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>7.2</v>
+      </c>
+      <c r="D112">
+        <v>445</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1213.9107611548557</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>7.2</v>
+      </c>
+      <c r="D113">
+        <v>465</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1246.7191601049867</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>7.2</v>
+      </c>
+      <c r="D114">
+        <v>465</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="1">
+        <v>951.44356955380567</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>7.2</v>
+      </c>
+      <c r="D115">
+        <v>475</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="1">
+        <v>951.44356955380567</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>7.2</v>
+      </c>
+      <c r="D116">
+        <v>475</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1246.7191601049867</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>7.2</v>
+      </c>
+      <c r="D117">
+        <v>480</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1246.7191601049867</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>7.2</v>
+      </c>
+      <c r="D118">
+        <v>525</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1312.3359580052493</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>7.2</v>
+      </c>
+      <c r="D119">
+        <v>550</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1345.1443569553805</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>7.2</v>
+      </c>
+      <c r="D120">
+        <v>575</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1377.9527559055118</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>7.2</v>
+      </c>
+      <c r="D121">
+        <v>595</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1082.6771653543306</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>7.2</v>
+      </c>
+      <c r="D122">
+        <v>595</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1410.7611548556429</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>7.2</v>
+      </c>
+      <c r="D123">
+        <v>900</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1377.9527559055118</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>7.2</v>
+      </c>
+      <c r="D124">
+        <v>900</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1804.4619422572177</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>7.2</v>
+      </c>
+      <c r="D125">
+        <v>960</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1443.5695538057741</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="D126">
+        <v>295</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1017.0603674540682</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="D127">
+        <v>350</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="1">
+        <v>853.01837270341207</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="D128">
+        <v>960</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1443.5695538057741</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>39.837000000000003</v>
+      </c>
+      <c r="D129">
+        <v>960</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1443.5695538057741</v>
+      </c>
+      <c r="G129" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1373,34 +4043,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1415,7 +4085,7 @@
       <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1424,25 +4094,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.8</v>
+        <v>2.3090000000000002</v>
       </c>
       <c r="C2">
         <v>0.12</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
-        <v>167</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>6300</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
@@ -1453,25 +4123,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.8</v>
+        <v>2.3090000000000002</v>
       </c>
       <c r="C3">
         <v>0.12</v>
       </c>
-      <c r="D3" s="14">
-        <v>2</v>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
-        <v>50</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>6600</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
@@ -1482,13 +4152,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4.8</v>
+        <v>2.3090000000000002</v>
       </c>
       <c r="C4">
         <v>0.12</v>
       </c>
-      <c r="D4" s="14">
-        <v>2</v>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1496,11 +4166,11 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="H4" s="6">
-        <v>1</v>
+      <c r="H4">
+        <v>7000</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
@@ -1511,25 +4181,25 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4.8</v>
+        <v>2.3090000000000002</v>
       </c>
       <c r="C5">
         <v>0.12</v>
       </c>
-      <c r="D5" s="14">
-        <v>2</v>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>75</v>
       </c>
-      <c r="H5" s="6">
-        <v>1</v>
+      <c r="H5">
+        <v>7400</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
@@ -1540,25 +4210,25 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="C6">
         <v>0.12</v>
       </c>
-      <c r="D6" s="14">
-        <v>2</v>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>6300</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
@@ -1566,28 +4236,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="C7">
-        <v>0.48</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2</v>
+        <v>0.12</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1">
-        <v>112.5</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>6600</v>
       </c>
       <c r="I7" t="s">
         <v>1</v>
@@ -1595,28 +4265,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="C8">
-        <v>0.48</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2</v>
+        <v>0.12</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1">
-        <v>150</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>6600</v>
       </c>
       <c r="I8" t="s">
         <v>1</v>
@@ -1624,38 +4294,2845 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="C9">
+        <v>0.12</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>7000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>7.2</v>
+      </c>
+      <c r="C10">
+        <v>0.12</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>7000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>7.2</v>
+      </c>
+      <c r="C11">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>7000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>7.2</v>
+      </c>
+      <c r="C12">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>7000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>7.2</v>
+      </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>7400</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>7.2</v>
+      </c>
+      <c r="C14">
+        <v>0.12</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>75</v>
+      </c>
+      <c r="H14">
+        <v>7400</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>7.2</v>
+      </c>
+      <c r="C15">
+        <v>0.12</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>7400</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>7.2</v>
+      </c>
+      <c r="C16">
+        <v>0.12</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>7400</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>7.2</v>
+      </c>
+      <c r="C17">
+        <v>0.12</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>7800</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>7.2</v>
+      </c>
+      <c r="C18">
+        <v>0.12</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>7800</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>7.2</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>7800</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>7.2</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
+      <c r="H20">
+        <v>8600</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>7.2</v>
+      </c>
+      <c r="C21">
+        <v>0.12</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>150</v>
+      </c>
+      <c r="H21">
+        <v>8600</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>7.2</v>
+      </c>
+      <c r="C22">
+        <v>0.12</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <v>11100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>12.47</v>
+      </c>
+      <c r="C23">
+        <v>0.12</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>6300</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>12.47</v>
+      </c>
+      <c r="C24">
+        <v>0.12</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>6600</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>12.47</v>
+      </c>
+      <c r="C25">
+        <v>0.12</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>6600</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>12.47</v>
+      </c>
+      <c r="C26">
+        <v>0.12</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>7000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>12.47</v>
+      </c>
+      <c r="C27">
+        <v>0.12</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>7000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>12.47</v>
+      </c>
+      <c r="C28">
+        <v>0.12</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>7000</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>12.47</v>
+      </c>
+      <c r="C29">
+        <v>0.12</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>75</v>
+      </c>
+      <c r="H29">
+        <v>7400</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>12.47</v>
+      </c>
+      <c r="C30">
+        <v>0.12</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>75</v>
+      </c>
+      <c r="H30">
+        <v>7400</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>12.47</v>
+      </c>
+      <c r="C31">
+        <v>0.12</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>7800</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>12.47</v>
+      </c>
+      <c r="C32">
+        <v>12.47</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>10000</v>
+      </c>
+      <c r="H32">
+        <v>172000</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>12.47</v>
+      </c>
+      <c r="C33">
+        <v>12.47</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>10000</v>
+      </c>
+      <c r="H33">
+        <v>172000</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>12.47</v>
+      </c>
+      <c r="C34">
+        <v>12.47</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>10000</v>
+      </c>
+      <c r="H34">
+        <v>172000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>12.47</v>
+      </c>
+      <c r="C35">
+        <v>12.47</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>10000</v>
+      </c>
+      <c r="H35">
+        <v>172000</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.12</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>6300</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.12</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>6600</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.12</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>6600</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.12</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>7000</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.12</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>7000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.12</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>7000</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.12</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>7000</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.12</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>75</v>
+      </c>
+      <c r="H43">
+        <v>7400</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.12</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44">
+        <v>75</v>
+      </c>
+      <c r="H44">
+        <v>7400</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C45">
+        <v>0.12</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>75</v>
+      </c>
+      <c r="H45">
+        <v>7400</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C46">
+        <v>0.12</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>75</v>
+      </c>
+      <c r="H46">
+        <v>7400</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.12</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>75</v>
+      </c>
+      <c r="H47">
+        <v>7400</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.12</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>7800</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C49">
+        <v>0.12</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>7800</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.12</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>150</v>
+      </c>
+      <c r="H50">
+        <v>8600</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>14.433999999999999</v>
+      </c>
+      <c r="C51">
+        <v>0.12</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>150</v>
+      </c>
+      <c r="H51">
+        <v>8600</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
         <v>0.48</v>
       </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C52">
+        <v>0.48</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>10000</v>
+      </c>
+      <c r="H52">
+        <v>178100</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>0.48</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>75</v>
+      </c>
+      <c r="H53">
+        <v>13600</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.48</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1">
-        <v>225</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="4"/>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>150</v>
+      </c>
+      <c r="H54">
+        <v>14800</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>0.48</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>500</v>
+      </c>
+      <c r="H55">
+        <v>20600</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>0.48</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>28900</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>12.47</v>
+      </c>
+      <c r="C57">
+        <v>0.48</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>75</v>
+      </c>
+      <c r="H57">
+        <v>13600</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>12.47</v>
+      </c>
+      <c r="C58">
+        <v>0.48</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>75</v>
+      </c>
+      <c r="H58">
+        <v>13600</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>12.47</v>
+      </c>
+      <c r="C59">
+        <v>0.48</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>14000</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>12.47</v>
+      </c>
+      <c r="C60">
+        <v>0.48</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>14000</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>12.47</v>
+      </c>
+      <c r="C61">
+        <v>0.48</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>14000</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>12.47</v>
+      </c>
+      <c r="C62">
+        <v>0.48</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>150</v>
+      </c>
+      <c r="H62">
+        <v>14800</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>12.47</v>
+      </c>
+      <c r="C63">
+        <v>0.48</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63">
+        <v>150</v>
+      </c>
+      <c r="H63">
+        <v>14800</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>12.47</v>
+      </c>
+      <c r="C64">
+        <v>0.48</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <v>300</v>
+      </c>
+      <c r="H64">
+        <v>17300</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>12.47</v>
+      </c>
+      <c r="C65">
+        <v>0.48</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65">
+        <v>300</v>
+      </c>
+      <c r="H65">
+        <v>17300</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>12.47</v>
+      </c>
+      <c r="C66">
+        <v>0.48</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66">
+        <v>300</v>
+      </c>
+      <c r="H66">
+        <v>17300</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>12.47</v>
+      </c>
+      <c r="C67">
+        <v>0.48</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>500</v>
+      </c>
+      <c r="H67">
+        <v>20600</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>12.47</v>
+      </c>
+      <c r="C68">
+        <v>0.48</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <v>500</v>
+      </c>
+      <c r="H68">
+        <v>20600</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>12.47</v>
+      </c>
+      <c r="C69">
+        <v>0.48</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <v>500</v>
+      </c>
+      <c r="H69">
+        <v>20600</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>12.47</v>
+      </c>
+      <c r="C70">
+        <v>0.48</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>28900</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>12.47</v>
+      </c>
+      <c r="C71">
+        <v>0.48</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>28900</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>12.47</v>
+      </c>
+      <c r="C72">
+        <v>0.48</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72">
+        <v>1500</v>
+      </c>
+      <c r="H72">
+        <v>37200</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>12.47</v>
+      </c>
+      <c r="C73">
+        <v>0.48</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73">
+        <v>1500</v>
+      </c>
+      <c r="H73">
+        <v>37200</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>12.47</v>
+      </c>
+      <c r="C74">
+        <v>0.48</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74">
+        <v>1500</v>
+      </c>
+      <c r="H74">
+        <v>37200</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>12.47</v>
+      </c>
+      <c r="C75">
+        <v>12.47</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75">
+        <v>10000</v>
+      </c>
+      <c r="H75">
+        <v>178100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>12.47</v>
+      </c>
+      <c r="C76">
+        <v>12.47</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76">
+        <v>10000</v>
+      </c>
+      <c r="H76">
+        <v>178100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>12.47</v>
+      </c>
+      <c r="C77">
+        <v>12.47</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77">
+        <v>10000</v>
+      </c>
+      <c r="H77">
+        <v>178100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>12.47</v>
+      </c>
+      <c r="C78">
+        <v>12.47</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78">
+        <v>10000</v>
+      </c>
+      <c r="H78">
+        <v>178100</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>12.47</v>
+      </c>
+      <c r="C79">
+        <v>12.47</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79">
+        <v>10000</v>
+      </c>
+      <c r="H79">
+        <v>178100</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>12.47</v>
+      </c>
+      <c r="C80">
+        <v>12.47</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80">
+        <v>10000</v>
+      </c>
+      <c r="H80">
+        <v>178100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>12.47</v>
+      </c>
+      <c r="C81">
+        <v>12.47</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81">
+        <v>10000</v>
+      </c>
+      <c r="H81">
+        <v>178100</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>12.47</v>
+      </c>
+      <c r="C82">
+        <v>12.47</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82">
+        <v>10000</v>
+      </c>
+      <c r="H82">
+        <v>178100</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>12.47</v>
+      </c>
+      <c r="C83">
+        <v>12.47</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83">
+        <v>10000</v>
+      </c>
+      <c r="H83">
+        <v>178100</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>12.47</v>
+      </c>
+      <c r="C84">
+        <v>12.47</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84">
+        <v>10000</v>
+      </c>
+      <c r="H84">
+        <v>178100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>12.47</v>
+      </c>
+      <c r="C85">
+        <v>12.47</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85">
+        <v>10000</v>
+      </c>
+      <c r="H85">
+        <v>178100</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>12.47</v>
+      </c>
+      <c r="C86">
+        <v>12.47</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86">
+        <v>10000</v>
+      </c>
+      <c r="H86">
+        <v>178100</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>12.47</v>
+      </c>
+      <c r="C87">
+        <v>12.47</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87">
+        <v>10000</v>
+      </c>
+      <c r="H87">
+        <v>178100</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>12.47</v>
+      </c>
+      <c r="C88">
+        <v>12.47</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88">
+        <v>10000</v>
+      </c>
+      <c r="H88">
+        <v>178100</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>12.47</v>
+      </c>
+      <c r="C89">
+        <v>12.47</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89">
+        <v>10000</v>
+      </c>
+      <c r="H89">
+        <v>178100</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>12.47</v>
+      </c>
+      <c r="C90">
+        <v>12.47</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90">
+        <v>10000</v>
+      </c>
+      <c r="H90">
+        <v>178100</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>12.47</v>
+      </c>
+      <c r="C91">
+        <v>12.47</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91">
+        <v>10000</v>
+      </c>
+      <c r="H91">
+        <v>178100</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>12.47</v>
+      </c>
+      <c r="C92">
+        <v>12.47</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92">
+        <v>16000</v>
+      </c>
+      <c r="H92">
+        <v>277600</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>12.47</v>
+      </c>
+      <c r="C93">
+        <v>12.47</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93">
+        <v>16000</v>
+      </c>
+      <c r="H93">
+        <v>277600</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>12.47</v>
+      </c>
+      <c r="C94">
+        <v>12.47</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94">
+        <v>30000</v>
+      </c>
+      <c r="H94">
+        <v>509700</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>12.47</v>
+      </c>
+      <c r="C95">
+        <v>12.47</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95">
+        <v>30000</v>
+      </c>
+      <c r="H95">
+        <v>509700</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>25</v>
+      </c>
+      <c r="C96">
+        <v>0.48</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96">
+        <v>75</v>
+      </c>
+      <c r="H96">
+        <v>13600</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>0.48</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>14000</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>0.48</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98">
+        <v>150</v>
+      </c>
+      <c r="H98">
+        <v>14800</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <v>0.48</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99">
+        <v>300</v>
+      </c>
+      <c r="H99">
+        <v>17300</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>25</v>
+      </c>
+      <c r="C100">
+        <v>0.48</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100">
+        <v>500</v>
+      </c>
+      <c r="H100">
+        <v>20600</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>0.48</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101">
+        <v>1000</v>
+      </c>
+      <c r="H101">
+        <v>28900</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>25</v>
+      </c>
+      <c r="C102">
+        <v>25</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102">
+        <v>10000</v>
+      </c>
+      <c r="H102">
+        <v>178100</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>25</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103">
+        <v>10000</v>
+      </c>
+      <c r="H103">
+        <v>178100</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>25</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104">
+        <v>10000</v>
+      </c>
+      <c r="H104">
+        <v>178100</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>25</v>
+      </c>
+      <c r="C105">
+        <v>25</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105">
+        <v>10000</v>
+      </c>
+      <c r="H105">
+        <v>178100</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>25</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106">
+        <v>10000</v>
+      </c>
+      <c r="H106">
+        <v>178100</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1664,10 +7141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1675,109 +7152,121 @@
     <col min="1" max="1" width="38.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
+      <c r="B2" s="4">
+        <v>500</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
+      <c r="B3" s="4">
+        <v>15000</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="4">
+        <v>500</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2000</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
+      <c r="B6" s="4">
+        <v>3500</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
+      <c r="B7" s="4">
+        <v>3500</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B9" s="4">
+        <v>15000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1786,88 +7275,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5">
+        <v>220000</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>35</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>12.47</v>
+      </c>
+      <c r="E3" s="5">
+        <v>150000</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="11"/>
-      <c r="E5" s="6"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,8 +7368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403E8DB1-5F2A-4BA6-B37A-04170EF10F2B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1887,23 +7377,23 @@
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1911,26 +7401,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,7 +7432,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1967,8 +7457,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>28</v>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1978,18 +7468,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2151,6 +7641,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC76A28E-CA77-4DD9-B500-D667583C902D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BDBD4E-971F-4101-BD63-1644E83CF38E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2162,14 +7660,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8baa01ab-7cf8-4360-9f3f-f87b1ec95c26"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC76A28E-CA77-4DD9-B500-D667583C902D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/disco/extensions/upgrade_simulation/upgrades/Generic_DISCO_cost_database_v2.xlsx
+++ b/disco/extensions/upgrade_simulation/upgrades/Generic_DISCO_cost_database_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABRAHAM\Documents\GitHub\Tools\disco\disco\extensions\upgrade_simulation\upgrades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EEFA48-40DD-4E67-9A40-68920FF48FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F1E7FA-6338-49BF-BD12-09A96A709579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="676" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="676" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="38">
   <si>
     <t>cost_per_m</t>
   </si>
@@ -100,19 +100,10 @@
     <t>Assume that the costs for each row are inclusive of labor/land/etc. User has to ensure that.</t>
   </si>
   <si>
-    <t>Change LTC setpoint</t>
-  </si>
-  <si>
     <t>Replace voltage regulator controller</t>
   </si>
   <si>
-    <t>Change LTC controller</t>
-  </si>
-  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Add new voltage regulator</t>
   </si>
   <si>
     <t>Replace capacitor controller</t>
@@ -125,9 +116,6 @@
   </si>
   <si>
     <t>secondary_kV</t>
-  </si>
-  <si>
-    <t>transformer_kVA</t>
   </si>
   <si>
     <t>voltage_kV</t>
@@ -152,6 +140,15 @@
   </si>
   <si>
     <t>If new transformer is added in parallel, then removing and replacing fixed costs are considered (refer sheet misc)</t>
+  </si>
+  <si>
+    <t>Add new voltage regulator transformer</t>
+  </si>
+  <si>
+    <t>Add new LTC controller</t>
+  </si>
+  <si>
+    <t>Change LTC settings</t>
   </si>
 </sst>
 </file>
@@ -306,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +481,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -668,7 +671,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -694,6 +697,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1068,13 +1073,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>9</v>
@@ -4046,7 +4051,7 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4065,10 +4070,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>18</v>
@@ -7144,7 +7149,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7154,7 +7159,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>16</v>
@@ -7171,7 +7176,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4">
         <v>500</v>
@@ -7181,10 +7186,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14">
         <v>15000</v>
       </c>
       <c r="C3" t="s">
@@ -7193,7 +7198,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4">
         <v>500</v>
@@ -7204,20 +7209,19 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2000</v>
+      <c r="A5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14">
+        <v>15000</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4">
         <v>3500</v>
@@ -7228,21 +7232,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -7250,10 +7255,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -7275,88 +7280,121 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
         <v>25</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>10000</v>
       </c>
       <c r="D2" s="5">
         <v>25</v>
       </c>
       <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="5">
         <v>220000</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
       </c>
       <c r="C3" s="5">
+        <v>12.47</v>
+      </c>
+      <c r="D3" s="5">
+        <v>12.47</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
         <v>10000</v>
       </c>
-      <c r="D3" s="5">
-        <v>12.47</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="I3" s="5">
         <v>150000</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" s="4"/>
     </row>
   </sheetData>
@@ -7368,7 +7406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403E8DB1-5F2A-4BA6-B37A-04170EF10F2B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -7379,7 +7417,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>4</v>
@@ -7390,7 +7428,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -7401,7 +7439,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -7458,7 +7496,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/disco/extensions/upgrade_simulation/upgrades/Generic_DISCO_cost_database_v2.xlsx
+++ b/disco/extensions/upgrade_simulation/upgrades/Generic_DISCO_cost_database_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABRAHAM\Documents\GitHub\Tools\disco\disco\extensions\upgrade_simulation\upgrades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F1E7FA-6338-49BF-BD12-09A96A709579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C5616E-ABE0-48E0-BC2A-85B7CEA39721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="676" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="676" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="1" r:id="rId1"/>
@@ -103,13 +103,7 @@
     <t>Replace voltage regulator controller</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Replace capacitor controller</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>primary_kV</t>
@@ -149,6 +143,12 @@
   </si>
   <si>
     <t>Change LTC settings</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1073,13 +1073,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>9</v>
@@ -4051,7 +4051,7 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4070,10 +4070,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>18</v>
@@ -7148,9 +7148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7159,7 +7157,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>16</v>
@@ -7176,7 +7174,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4">
         <v>500</v>
@@ -7187,7 +7185,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14">
         <v>15000</v>
@@ -7198,7 +7196,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4">
         <v>500</v>
@@ -7210,7 +7208,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="14">
         <v>15000</v>
@@ -7232,7 +7230,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4">
         <v>2000</v>
@@ -7244,7 +7242,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
         <v>3500</v>
@@ -7255,7 +7253,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -7282,9 +7280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7297,16 +7293,16 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>18</v>
@@ -7329,7 +7325,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5">
         <v>3</v>
@@ -7361,7 +7357,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
@@ -7407,7 +7403,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7417,7 +7413,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>4</v>
@@ -7428,7 +7424,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -7439,7 +7435,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -7469,8 +7465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E97FA0-EA86-42FF-9B53-994C6673BFB4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7496,7 +7492,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7506,18 +7502,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7679,14 +7675,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC76A28E-CA77-4DD9-B500-D667583C902D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BDBD4E-971F-4101-BD63-1644E83CF38E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7698,6 +7686,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8baa01ab-7cf8-4360-9f3f-f87b1ec95c26"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC76A28E-CA77-4DD9-B500-D667583C902D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/disco/extensions/upgrade_simulation/upgrades/Generic_DISCO_cost_database_v2.xlsx
+++ b/disco/extensions/upgrade_simulation/upgrades/Generic_DISCO_cost_database_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABRAHAM\Documents\GitHub\Tools\disco\disco\extensions\upgrade_simulation\upgrades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C5616E-ABE0-48E0-BC2A-85B7CEA39721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9321B5AE-938E-43FC-8ACC-A16C7693C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="676" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="39">
   <si>
     <t>cost_per_m</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>upgrade_type</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1076,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
@@ -7465,7 +7468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E97FA0-EA86-42FF-9B53-994C6673BFB4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
